--- a/ExaminerSearchAnalysis/apps_intake.xlsx
+++ b/ExaminerSearchAnalysis/apps_intake.xlsx
@@ -347,10 +347,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -365,7 +365,252 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>11837541</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>11841967</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>12060631</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>10590450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>11959953</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>11120115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>12061725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>11637726</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>12124027</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10565611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11735583</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>10558844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>11345809</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>11328678</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>11367696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>11542281</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>11939934</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>11316126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>12001255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>11463337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>11201637</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>11526601</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>11267223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>10569173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>11408669</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>11658421</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>10563809</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>10538761</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>12043900</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>11513450</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>11853501</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>11854213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>11512782</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>11944150</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>12164131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>12018205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>11264933</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>12100088</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>11336878</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>11633617</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>10596977</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>11839566</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>11636877</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>11171880</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>11753637</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>11433118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>11416939</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>11256996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>11220373</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>11951501</v>
       </c>
     </row>
   </sheetData>
